--- a/STOCK UTN/2023/05 MEI/02 MEI - 06 MEI 2023.xlsx
+++ b/STOCK UTN/2023/05 MEI/02 MEI - 06 MEI 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -11047,7 +11047,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -12279,7 +12279,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2256"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2175" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A2189" sqref="A2189"/>
     </sheetView>
   </sheetViews>
@@ -12553,7 +12553,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 02 MEI - 6 MEI 2023</v>
+        <v>TANGGAL : 02 MEI - 06 MEI 2023</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -37376,7 +37376,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F749"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A262" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A700" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B280" sqref="A280:B284"/>
     </sheetView>
   </sheetViews>
